--- a/Consultant_Active_Reports/Active_Candidates_Jordan_Goodenough.xlsx
+++ b/Consultant_Active_Reports/Active_Candidates_Jordan_Goodenough.xlsx
@@ -798,11 +798,11 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3rd Interview</t>
+          <t>4th Interview</t>
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>45986</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="14">

--- a/Consultant_Active_Reports/Active_Candidates_Jordan_Goodenough.xlsx
+++ b/Consultant_Active_Reports/Active_Candidates_Jordan_Goodenough.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,7 +513,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Shruti Devgon</t>
+          <t>Michael Lin</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45987</v>
+        <v>45986</v>
       </c>
     </row>
     <row r="4">
@@ -541,63 +541,63 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Michael Lin</t>
+          <t>Sanat Valecha</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>3rd Interview</t>
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45986</v>
+        <v>45993</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>656</v>
+        <v>484</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>UnifyApps</t>
+          <t>Cognition AI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>UnifyApps - US Enterprise AE</t>
+          <t>Enterprise Account Executive (US)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Nave Brar</t>
+          <t>Shruti Devgon</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45974</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>696</v>
+        <v>656</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cognition AI</t>
+          <t>UnifyApps</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Founding EMEA AE</t>
+          <t>UnifyApps - US Enterprise AE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Diana Rautner</t>
+          <t>Nave Brar</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -606,12 +606,12 @@
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45982</v>
+        <v>45974</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -620,96 +620,96 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Forward Deployed Engineer / Sales Engineer (UK)</t>
+          <t>Founding EMEA AE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Joern Messner</t>
+          <t>Rudi Willner</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>3rd Interview</t>
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45993</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>724</v>
+        <v>696</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rox</t>
+          <t>Cognition AI</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ENT AE San Fran</t>
+          <t>Founding EMEA AE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Payandeh Ekrami</t>
+          <t>Diana Rautner</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45987</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>740</v>
+        <v>702</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Axion Ray</t>
+          <t>Cognition AI</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive (East)</t>
+          <t>Forward Deployed Engineer / Sales Engineer (UK)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Paul Plofchan</t>
+          <t>Joern Messner</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>2nd Interview</t>
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45987</v>
+        <v>45993</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Axion Ray</t>
+          <t>Rox</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive (East)</t>
+          <t>ENT AE San Fran</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Joshua Easley</t>
+          <t>Payandeh Ekrami</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -723,21 +723,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Conduct AI</t>
+          <t>PointFive</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CS1 Conduct AI - Enterprise Account Executive UK (German speaking)</t>
+          <t>PointFive SE EST</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LEO ALTINTAS</t>
+          <t>Paul Plofchan</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -746,91 +746,91 @@
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45980</v>
+        <v>45967</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Materialize</t>
+          <t>Axion Ray</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CS3 Materialize - Enterprise Account Executive x3</t>
+          <t>Enterprise Account Executive (East)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Paul Plofchan</t>
+          <t>Joshua Easley</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3rd Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>45993</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Materialize</t>
+          <t>Axion Ray</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CS3 Materialize - Enterprise Account Executive x3</t>
+          <t>Enterprise Account Executive (East)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Todd Hixson</t>
+          <t>Paul Plofchan</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4th Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>45992</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Materialize</t>
+          <t>Conduct AI</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CS3 Materialize - Enterprise Account Executive x3</t>
+          <t>CS1 Conduct AI - Enterprise Account Executive UK (German speaking)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Tiffany Cole</t>
+          <t>LEO ALTINTAS</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3rd Interview</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>45993</v>
+        <v>45980</v>
       </c>
     </row>
     <row r="15">
@@ -849,35 +849,35 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Danielle Messina</t>
+          <t>Todd Hixson</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>4th Interview</t>
         </is>
       </c>
       <c r="F15" s="2" t="n">
-        <v>45987</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Vega Security</t>
+          <t>Materialize</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Enterprise AE (Mid-ATL)</t>
+          <t>CS3 Materialize - Enterprise Account Executive x3</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Brandon Nelson</t>
+          <t>Danielle Messina</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -886,62 +886,146 @@
         </is>
       </c>
       <c r="F16" s="2" t="n">
-        <v>45980</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>777</v>
+        <v>751</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Adaptive6</t>
+          <t>Materialize</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SE Director</t>
+          <t>CS3 Materialize - Enterprise Account Executive x3</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Adam Rafael</t>
+          <t>Paul Plofchan</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>3rd Interview</t>
         </is>
       </c>
       <c r="F17" s="2" t="n">
-        <v>45981</v>
+        <v>45993</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
+        <v>751</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Materialize</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>CS3 Materialize - Enterprise Account Executive x3</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Tiffany Cole</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3rd Interview</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>45993</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>755</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Vega Security</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Enterprise AE (Mid-ATL)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Brandon Nelson</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>CV Sent</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>45980</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>777</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Adaptive6</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>SE Director</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Adam Rafael</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>CV Sent</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>45981</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
         <v>815</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>Conduct AI</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Enterprise Account Executive UK</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Rudi Willner</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1st Interview</t>
         </is>
       </c>
-      <c r="F18" s="2" t="n">
+      <c r="F21" s="2" t="n">
         <v>45992</v>
       </c>
     </row>

--- a/Consultant_Active_Reports/Active_Candidates_Jordan_Goodenough.xlsx
+++ b/Consultant_Active_Reports/Active_Candidates_Jordan_Goodenough.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -681,7 +681,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3rd Interview</t>
+          <t>4th Interview</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
     </row>
@@ -1082,6 +1082,31 @@
       <c r="E26" t="inlineStr">
         <is>
           <t>1st Interview</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>871</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>LaunchDarkly</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Strategic AE U.S</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Paul Plofchan</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>CV Sent</t>
         </is>
       </c>
     </row>
